--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_24_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1575398.465017257</v>
+        <v>1572756.781402739</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673438</v>
+        <v>461523.3857480709</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10365655.05260124</v>
+        <v>10421092.01878424</v>
       </c>
     </row>
     <row r="11">
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>172.0188164403323</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>96.86671316392739</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.4479201012688</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>38.62386098330138</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>265.4618472004419</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>279.8612363146807</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.87073484362677</v>
+        <v>12.1525406823579</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.0853068851752</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>240.6691894304458</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>35.63064453169267</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>81.93862833648839</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>214.1032629116538</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8317058071198</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9270986360556</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>76.65893964714638</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>324.7991735962217</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1209,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>139.2090157806259</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>64.28422739102865</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.4863514715117</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29913347719358</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6790476831053</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8192001275736</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>67.93988829086797</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4339940287773</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>55.5800061242112</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.3498598144164</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>288.7511433632822</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.15636898111885</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
-        <v>201.4146274292354</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.949422691779</v>
+        <v>200.6173698503548</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>83.39618318767445</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.6934939670195</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>86.64179915749274</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
-        <v>8.282546271489906</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>122.4601525254633</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
-        <v>189.4832755487706</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7670384496465</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>105.3798824585323</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>15.86245215173798</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>77.39811087628541</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>185.2985930389547</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>218.4529121465557</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1978462422561</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1661,7 +1661,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.617369850356</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>335.9464125187627</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>40.65078087822787</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>15.07188488421845</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1822,7 +1822,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.4423155261916</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1895,7 +1895,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001842</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2020,7 +2020,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>152.3971467123656</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.1543427721626</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>332.4423155261899</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081959</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2138,7 +2138,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
-        <v>277.4607323328435</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>126.8033945778902</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>38.03682829123491</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.804576744409</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108353</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922732</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756199</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>176.5196562849259</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>38.61213096654701</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>125.2851635392052</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>46.29306638367164</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>26.13627195705875</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3086,7 +3086,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701356</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>107.4021082756264</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238256</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>55.5207962406042</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>212.5602966632217</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890384</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>102.6244980900704</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.3830930556865</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>95.25381996636061</v>
+        <v>203.4717645373301</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.17768229832525</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="C2" t="n">
-        <v>35.17768229832525</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="D2" t="n">
-        <v>35.17768229832525</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832525</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912178</v>
+        <v>504.9169163941413</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>315.4971313776562</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123835</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985576</v>
+        <v>649.4845259985591</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262241</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433421</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="T2" t="n">
-        <v>414.0172523312942</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="U2" t="n">
-        <v>414.0172523312942</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="V2" t="n">
-        <v>224.5974673148098</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="W2" t="n">
-        <v>224.5974673148098</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="X2" t="n">
-        <v>35.17768229832525</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="Y2" t="n">
-        <v>35.17768229832525</v>
+        <v>511.8624171433447</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>254.4015891111996</v>
+        <v>508.7224706063611</v>
       </c>
       <c r="C3" t="n">
-        <v>254.4015891111996</v>
+        <v>508.7224706063611</v>
       </c>
       <c r="D3" t="n">
-        <v>254.4015891111996</v>
+        <v>359.7880609451099</v>
       </c>
       <c r="E3" t="n">
-        <v>254.4015891111996</v>
+        <v>200.5506059396544</v>
       </c>
       <c r="F3" t="n">
-        <v>254.4015891111996</v>
+        <v>54.01604796653933</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>54.01604796653933</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330557</v>
+        <v>54.01604796653933</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024199</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140239</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546594</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476339</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652786</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198748</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="T3" t="n">
-        <v>409.3994882033903</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="U3" t="n">
-        <v>409.3994882033903</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="V3" t="n">
-        <v>409.3994882033903</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="W3" t="n">
-        <v>409.3994882033903</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="X3" t="n">
-        <v>409.3994882033903</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="Y3" t="n">
-        <v>409.3994882033903</v>
+        <v>676.9378076264292</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>67.74542702828944</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230162</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170694</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>66.418473293963</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828944</v>
+        <v>67.74542702829027</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>914.2613974809506</v>
+        <v>1065.991745760494</v>
       </c>
       <c r="C5" t="n">
-        <v>545.2988805405388</v>
+        <v>697.0292288200824</v>
       </c>
       <c r="D5" t="n">
-        <v>545.2988805405388</v>
+        <v>338.7635302133319</v>
       </c>
       <c r="E5" t="n">
-        <v>545.2988805405388</v>
+        <v>56.07541272375536</v>
       </c>
       <c r="F5" t="n">
-        <v>134.3129757509312</v>
+        <v>49.12991197455189</v>
       </c>
       <c r="G5" t="n">
-        <v>122.3223344947425</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>122.3145011261495</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232722</v>
+        <v>301.1352304553213</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711872</v>
+        <v>559.8799194566293</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>879.452678178876</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135167</v>
+        <v>1208.810266619115</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>1506.47803665414</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>1726.029590732825</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>1842.730917800428</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>1842.730917800428</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642784</v>
+        <v>1842.730917800428</v>
       </c>
       <c r="T5" t="n">
-        <v>1826.151173794699</v>
+        <v>1842.730917800428</v>
       </c>
       <c r="U5" t="n">
-        <v>1572.544009457209</v>
+        <v>1842.730917800428</v>
       </c>
       <c r="V5" t="n">
-        <v>1572.544009457209</v>
+        <v>1842.730917800428</v>
       </c>
       <c r="W5" t="n">
-        <v>1572.544009457209</v>
+        <v>1842.730917800428</v>
       </c>
       <c r="X5" t="n">
-        <v>1572.544009457209</v>
+        <v>1842.730917800428</v>
       </c>
       <c r="Y5" t="n">
-        <v>1182.404677481397</v>
+        <v>1452.591585824616</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>525.9940904859268</v>
+        <v>664.0101253191708</v>
       </c>
       <c r="C6" t="n">
-        <v>351.5410612047998</v>
+        <v>489.5570960380438</v>
       </c>
       <c r="D6" t="n">
-        <v>202.6066515435486</v>
+        <v>340.6226863767926</v>
       </c>
       <c r="E6" t="n">
-        <v>43.36919653809306</v>
+        <v>181.3852313713371</v>
       </c>
       <c r="F6" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="G6" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562316</v>
+        <v>68.93609211810417</v>
       </c>
       <c r="K6" t="n">
-        <v>246.6448318504519</v>
+        <v>201.92326536441</v>
       </c>
       <c r="L6" t="n">
-        <v>504.1959674104395</v>
+        <v>427.0634725857394</v>
       </c>
       <c r="M6" t="n">
-        <v>824.1028628789488</v>
+        <v>709.1483434077628</v>
       </c>
       <c r="N6" t="n">
-        <v>1166.88538687358</v>
+        <v>1013.107806306463</v>
       </c>
       <c r="O6" t="n">
-        <v>1458.244633128146</v>
+        <v>1268.951536358884</v>
       </c>
       <c r="P6" t="n">
-        <v>1672.753048689047</v>
+        <v>1454.955619064345</v>
       </c>
       <c r="Q6" t="n">
-        <v>1766.227047333487</v>
+        <v>1529.375226064137</v>
       </c>
       <c r="R6" t="n">
-        <v>1734.238298972664</v>
+        <v>1529.375226064137</v>
       </c>
       <c r="S6" t="n">
-        <v>1595.273638474382</v>
+        <v>1529.375226064137</v>
       </c>
       <c r="T6" t="n">
-        <v>1400.563316948358</v>
+        <v>1529.375226064137</v>
       </c>
       <c r="U6" t="n">
-        <v>1172.461727081622</v>
+        <v>1529.375226064137</v>
       </c>
       <c r="V6" t="n">
-        <v>937.3096188498796</v>
+        <v>1294.223117832394</v>
       </c>
       <c r="W6" t="n">
-        <v>694.2094275059949</v>
+        <v>1039.985761104193</v>
       </c>
       <c r="X6" t="n">
-        <v>694.2094275059949</v>
+        <v>1039.985761104193</v>
       </c>
       <c r="Y6" t="n">
-        <v>694.2094275059949</v>
+        <v>832.2254623392389</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>229.4763859824416</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="C7" t="n">
-        <v>193.4858359504288</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="D7" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="E7" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="F7" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="J7" t="n">
-        <v>43.36919653809306</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="K7" t="n">
-        <v>92.71685897981523</v>
+        <v>71.662786889411</v>
       </c>
       <c r="L7" t="n">
-        <v>185.7706748018941</v>
+        <v>146.1110562813913</v>
       </c>
       <c r="M7" t="n">
-        <v>287.1411594927332</v>
+        <v>227.8646009517955</v>
       </c>
       <c r="N7" t="n">
-        <v>393.9588065377461</v>
+        <v>315.5317549640426</v>
       </c>
       <c r="O7" t="n">
-        <v>472.3091036033659</v>
+        <v>376.1934721167866</v>
       </c>
       <c r="P7" t="n">
-        <v>520.2893470405991</v>
+        <v>409.0380796419473</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470405991</v>
+        <v>409.0380796419473</v>
       </c>
       <c r="R7" t="n">
-        <v>411.1248508126813</v>
+        <v>409.0380796419473</v>
       </c>
       <c r="S7" t="n">
-        <v>411.1248508126813</v>
+        <v>409.0380796419473</v>
       </c>
       <c r="T7" t="n">
-        <v>411.1248508126813</v>
+        <v>409.0380796419473</v>
       </c>
       <c r="U7" t="n">
-        <v>411.1248508126813</v>
+        <v>409.0380796419473</v>
       </c>
       <c r="V7" t="n">
-        <v>411.1248508126813</v>
+        <v>326.2717883929691</v>
       </c>
       <c r="W7" t="n">
-        <v>411.1248508126813</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="X7" t="n">
-        <v>411.1248508126813</v>
+        <v>36.85461835600855</v>
       </c>
       <c r="Y7" t="n">
-        <v>411.1248508126813</v>
+        <v>36.85461835600855</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1999.782794045775</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="C8" t="n">
-        <v>1999.782794045775</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="D8" t="n">
-        <v>1641.517095439025</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="E8" t="n">
-        <v>1255.72884284078</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="F8" t="n">
-        <v>844.7429380511728</v>
+        <v>845.7541926763686</v>
       </c>
       <c r="G8" t="n">
-        <v>428.7513160237792</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H8" t="n">
-        <v>121.7542466944301</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>44.32097432357517</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>156.7390114960372</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>375.9630260936719</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L8" t="n">
-        <v>684.8315631733813</v>
+        <v>669.5878927711875</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.176760714421</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.20924434183</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1797.393510791283</v>
+        <v>1761.9606125456</v>
       </c>
       <c r="P8" t="n">
-        <v>2062.620156411778</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2213.62157504142</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2216.048716178759</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2216.048716178759</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2216.048716178759</v>
+        <v>1958.285829056573</v>
       </c>
       <c r="U8" t="n">
-        <v>2216.048716178759</v>
+        <v>1958.285829056573</v>
       </c>
       <c r="V8" t="n">
-        <v>2216.048716178759</v>
+        <v>1958.285829056573</v>
       </c>
       <c r="W8" t="n">
-        <v>2216.048716178759</v>
+        <v>1958.285829056573</v>
       </c>
       <c r="X8" t="n">
-        <v>2216.048716178759</v>
+        <v>1584.820070795493</v>
       </c>
       <c r="Y8" t="n">
-        <v>2216.048716178759</v>
+        <v>1256.740097465976</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>746.3495216923061</v>
+        <v>683.0722621216817</v>
       </c>
       <c r="C9" t="n">
-        <v>571.8964924111791</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="D9" t="n">
-        <v>422.9620827499278</v>
+        <v>618.1386991004406</v>
       </c>
       <c r="E9" t="n">
-        <v>422.9620827499278</v>
+        <v>458.9012440949851</v>
       </c>
       <c r="F9" t="n">
-        <v>276.4275247768128</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G9" t="n">
-        <v>139.5726243005384</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H9" t="n">
-        <v>44.32097432357517</v>
+        <v>80.03532540581919</v>
       </c>
       <c r="I9" t="n">
-        <v>44.32097432357517</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>92.45854016584673</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>252.8881321538933</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>514.9280579783103</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>840.07315996285</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.232530213221</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1484.510540339608</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1702.966697553528</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.079656946498</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1799.079656946498</v>
+        <v>1734.238298972668</v>
       </c>
       <c r="S9" t="n">
-        <v>1799.079656946498</v>
+        <v>1595.273638474386</v>
       </c>
       <c r="T9" t="n">
-        <v>1604.454356256492</v>
+        <v>1400.563316948362</v>
       </c>
       <c r="U9" t="n">
-        <v>1376.354154107428</v>
+        <v>1172.461727081626</v>
       </c>
       <c r="V9" t="n">
-        <v>1141.202045875685</v>
+        <v>937.3096188498832</v>
       </c>
       <c r="W9" t="n">
-        <v>886.9646891474838</v>
+        <v>683.0722621216817</v>
       </c>
       <c r="X9" t="n">
-        <v>886.9646891474838</v>
+        <v>683.0722621216817</v>
       </c>
       <c r="Y9" t="n">
-        <v>886.9646891474838</v>
+        <v>683.0722621216817</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>281.0622695959441</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="C10" t="n">
-        <v>281.0622695959441</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="D10" t="n">
-        <v>281.0622695959441</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="E10" t="n">
-        <v>281.0622695959441</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="F10" t="n">
-        <v>212.4361198071886</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="G10" t="n">
-        <v>44.32097432357517</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="H10" t="n">
-        <v>44.32097432357517</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="I10" t="n">
-        <v>44.32097432357517</v>
+        <v>61.70688273934479</v>
       </c>
       <c r="J10" t="n">
-        <v>44.32097432357517</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>95.68230135470537</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>191.3129145707732</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>295.4002708199192</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>404.870188290089</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>485.6702863757492</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>535.746757801831</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>535.746757801831</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R10" t="n">
-        <v>535.746757801831</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S10" t="n">
-        <v>535.746757801831</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T10" t="n">
-        <v>535.746757801831</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U10" t="n">
-        <v>535.746757801831</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="V10" t="n">
-        <v>281.0622695959441</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="W10" t="n">
-        <v>281.0622695959441</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="X10" t="n">
-        <v>281.0622695959441</v>
+        <v>464.1479267131146</v>
       </c>
       <c r="Y10" t="n">
-        <v>281.0622695959441</v>
+        <v>243.3553475695845</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2310.622869249671</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C11" t="n">
-        <v>1941.660352309259</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D11" t="n">
-        <v>1583.394653702509</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E11" t="n">
-        <v>1197.606401104264</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F11" t="n">
-        <v>786.6204963146569</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>372.125688421307</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>80.45786684223401</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I11" t="n">
-        <v>80.45786684223401</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J11" t="n">
-        <v>317.3880320746714</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K11" t="n">
-        <v>723.223450194704</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L11" t="n">
-        <v>1263.599934653015</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M11" t="n">
-        <v>1896.542330458667</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N11" t="n">
-        <v>2544.340204328189</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O11" t="n">
-        <v>3142.70210599071</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P11" t="n">
-        <v>3618.889144608857</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q11" t="n">
-        <v>3928.3130327186</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R11" t="n">
-        <v>4022.8933421117</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S11" t="n">
-        <v>3925.765696676227</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T11" t="n">
-        <v>3722.316578060838</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U11" t="n">
-        <v>3468.832312715606</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V11" t="n">
-        <v>3137.769425372036</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W11" t="n">
-        <v>2785.000770101921</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X11" t="n">
-        <v>2700.762201225482</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y11" t="n">
-        <v>2310.622869249671</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5545302742961</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1015009931691</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1670913319178</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9296363264624</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3950783533473</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
-        <v>176.3410440432266</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>88.82407519727433</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I12" t="n">
-        <v>80.45786684223401</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J12" t="n">
-        <v>80.45786684223401</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K12" t="n">
-        <v>367.6362675822976</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L12" t="n">
-        <v>800.1056085483233</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M12" t="n">
-        <v>1324.133799366935</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N12" t="n">
-        <v>1510.228841936571</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O12" t="n">
-        <v>1993.261411868772</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P12" t="n">
-        <v>2361.604567899688</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q12" t="n">
-        <v>2557.913016602452</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R12" t="n">
-        <v>2557.913016602452</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.215892839358</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.818644810297</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.771131224795</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.619022993052</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.381666264851</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.530166059318</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.769867294364</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>243.3704932812932</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>243.3704932812932</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>243.3704932812932</v>
+        <v>387.614664306384</v>
       </c>
       <c r="E13" t="n">
-        <v>243.3704932812932</v>
+        <v>239.7015707239909</v>
       </c>
       <c r="F13" t="n">
-        <v>96.48054578338287</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G13" t="n">
-        <v>96.48054578338287</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H13" t="n">
-        <v>96.48054578338287</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I13" t="n">
-        <v>80.45786684223401</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J13" t="n">
-        <v>143.5350566283903</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K13" t="n">
-        <v>377.027092707682</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L13" t="n">
-        <v>731.3429449977128</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M13" t="n">
-        <v>1115.308455583784</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N13" t="n">
-        <v>1495.578740955085</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O13" t="n">
-        <v>1830.803602510217</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P13" t="n">
-        <v>2094.125701226118</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q13" t="n">
-        <v>2193.001193167698</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R13" t="n">
-        <v>2114.821283191652</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.650987192708</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>1706.991479973964</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>1417.902746395928</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.218258190041</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>873.8010881530804</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>645.8115372550631</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.0189581115329</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,46 +5261,46 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708299</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.91518802128</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S14" t="n">
         <v>4555.113898070876</v>
@@ -5309,19 +5309,19 @@
         <v>4353.904749750194</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I15" t="n">
-        <v>93.85065580060312</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J15" t="n">
-        <v>106.3138404733484</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>106.3138404733484</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>106.3138404733484</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.428158124812</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O15" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.3786971237837</v>
+        <v>675.7074548523129</v>
       </c>
       <c r="C16" t="n">
-        <v>632.4425141958768</v>
+        <v>634.6460600258201</v>
       </c>
       <c r="D16" t="n">
-        <v>632.4425141958768</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="E16" t="n">
-        <v>484.5294206134838</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134838</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G16" t="n">
         <v>317.3152257880633</v>
@@ -5431,22 +5431,22 @@
         <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156343</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861979</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213791</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005498</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
@@ -5458,28 +5458,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2413.151648264492</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2229.981458003423</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2010.302675717805</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1721.226462032532</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1721.226462032532</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1431.809291995571</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1203.819741097554</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.0271619540234</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5507,58 +5507,58 @@
         <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128774</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018653</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.46222495769</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874796</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S17" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T17" t="n">
-        <v>4353.904749750195</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3769.398533126174</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3043.16411959498</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>2653.024787619168</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5580,31 +5580,31 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G18" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608056</v>
+        <v>93.85065580060314</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608056</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K18" t="n">
-        <v>423.3203657894393</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L18" t="n">
-        <v>914.0526986331906</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M18" t="n">
-        <v>1506.071052885318</v>
+        <v>1654.758067211687</v>
       </c>
       <c r="N18" t="n">
-        <v>2128.167016284654</v>
+        <v>2276.854030611023</v>
       </c>
       <c r="O18" t="n">
         <v>2552.77562977024</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.754398433617</v>
+        <v>1098.385284034031</v>
       </c>
       <c r="C19" t="n">
-        <v>846.8182155057106</v>
+        <v>929.4491011061236</v>
       </c>
       <c r="D19" t="n">
-        <v>696.7015760933748</v>
+        <v>779.3324616937879</v>
       </c>
       <c r="E19" t="n">
-        <v>548.7884825109817</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F19" t="n">
-        <v>401.8985350130713</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G19" t="n">
-        <v>234.6843401876502</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608056</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156346</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861984</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693326</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M19" t="n">
         <v>1238.413883213792</v>
@@ -5695,28 +5695,28 @@
         <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.516429368669</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.516429368669</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T19" t="n">
-        <v>2140.837647083051</v>
+        <v>2091.269072318426</v>
       </c>
       <c r="U19" t="n">
-        <v>1851.761433397778</v>
+        <v>2091.269072318426</v>
       </c>
       <c r="V19" t="n">
-        <v>1597.076945191891</v>
+        <v>1836.584584112539</v>
       </c>
       <c r="W19" t="n">
-        <v>1307.65977515493</v>
+        <v>1547.167414075578</v>
       </c>
       <c r="X19" t="n">
-        <v>1307.65977515493</v>
+        <v>1319.177863177561</v>
       </c>
       <c r="Y19" t="n">
-        <v>1197.402863263857</v>
+        <v>1098.385284034031</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905843</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C20" t="n">
         <v>1948.261951965432</v>
@@ -5735,67 +5735,67 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2220959708302</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322607906</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J20" t="n">
-        <v>372.307498725193</v>
+        <v>372.3074987251937</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128751</v>
+        <v>841.9378825128757</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S20" t="n">
-        <v>4555.113898070875</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T20" t="n">
-        <v>4353.904749750193</v>
+        <v>4353.904749750194</v>
       </c>
       <c r="U20" t="n">
-        <v>4100.461420469743</v>
+        <v>4100.461420469744</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126173</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594979</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619167</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I21" t="n">
-        <v>93.85065580060312</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4986375524491</v>
+        <v>240.4596049779266</v>
       </c>
       <c r="K21" t="n">
-        <v>572.0073801158079</v>
+        <v>570.9683475412855</v>
       </c>
       <c r="L21" t="n">
-        <v>1062.739712959559</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M21" t="n">
-        <v>1117.915713151552</v>
+        <v>1653.719034637165</v>
       </c>
       <c r="N21" t="n">
-        <v>1740.011676550888</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O21" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P21" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
         <v>2552.77562977024</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>745.0885253246413</v>
+        <v>1078.556427399001</v>
       </c>
       <c r="C22" t="n">
-        <v>576.1523423967344</v>
+        <v>909.6202444710943</v>
       </c>
       <c r="D22" t="n">
-        <v>426.0357029843988</v>
+        <v>759.5036050587586</v>
       </c>
       <c r="E22" t="n">
-        <v>278.1226094020058</v>
+        <v>631.4193681113948</v>
       </c>
       <c r="F22" t="n">
-        <v>131.2326619040955</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G22" t="n">
-        <v>92.81162322608053</v>
+        <v>317.3152257880632</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608053</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861981</v>
+        <v>431.4224730861982</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M22" t="n">
         <v>1238.413883213792</v>
@@ -5923,37 +5923,37 @@
         <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>2020.132206020529</v>
       </c>
       <c r="P22" t="n">
         <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="T22" t="n">
-        <v>2208.696992124549</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="U22" t="n">
-        <v>1919.620778439276</v>
+        <v>2071.440215683396</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.936290233389</v>
+        <v>1816.755727477509</v>
       </c>
       <c r="W22" t="n">
-        <v>1375.519120196429</v>
+        <v>1527.338557440549</v>
       </c>
       <c r="X22" t="n">
-        <v>1147.529569298411</v>
+        <v>1299.349006542531</v>
       </c>
       <c r="Y22" t="n">
-        <v>926.736990154881</v>
+        <v>1078.556427399001</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,31 +6008,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>874.8686257536424</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>705.9324428257355</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>555.8158034133997</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>407.9027098310066</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>261.0127623330963</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,7 +6163,7 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
@@ -6175,22 +6175,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2338.476105524079</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>2049.400878868277</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1794.71639066239</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1505.299220625429</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1277.309669727412</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>1056.517090583882</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327641</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048572</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133955</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310024</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>261.012762333092</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.4026036630038</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="29">
@@ -6458,16 +6458,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1337.934786622704</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1889.844516861991</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057243</v>
+        <v>768.5380889459564</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778174</v>
+        <v>599.6019060180495</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654816</v>
+        <v>449.4852666057137</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830886</v>
+        <v>449.4852666057137</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.052681478294</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038326</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797726</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T31" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U31" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V31" t="n">
-        <v>1876.803094014472</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="W31" t="n">
-        <v>1587.385923977512</v>
+        <v>1398.968683817744</v>
       </c>
       <c r="X31" t="n">
-        <v>1359.396373079494</v>
+        <v>1170.979132919726</v>
       </c>
       <c r="Y31" t="n">
-        <v>1138.603793935964</v>
+        <v>950.1865537761961</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6701,19 +6701,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,16 +6734,16 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524072</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.40087886827</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327647</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048579</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>444.701316492522</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>296.788222910129</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>149.8982754122187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7105,10 +7105,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7166,22 +7166,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7199,10 +7199,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2049.400878868274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662387</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.0191461778174</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778174</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654816</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830886</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7579,40 +7579,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2251.626625948254</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1962.551399292452</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1707.866911086565</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1418.449741049605</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>1190.460190151587</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y43" t="n">
-        <v>969.6676110080572</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,10 +7643,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>956.9553291057243</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C46" t="n">
-        <v>788.0191461778174</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1587.385923977512</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X46" t="n">
-        <v>1359.396373079494</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y46" t="n">
-        <v>1138.603793935964</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
   </sheetData>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>19.53007201344975</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>50.29152613729153</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>286.3349174907946</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>43.23559055968003</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.7692889308208</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>142.4743248871677</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>72.7757324607357</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.29152613729028</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>50.29152613729087</v>
       </c>
     </row>
     <row r="15">
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>126.5960402204</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>52.10886670686511</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>50.291526137289</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>50.29152613728999</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>65.08484775039622</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.4303105799322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>50.2915261372907</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>50.29152613729138</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>19.630568068679</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>127.505224585932</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>110.0033420516684</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>110.0033420516653</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>92.12028678808304</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>99.12798163925962</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>191.2691783702295</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>110.0033420516619</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>110.0033420516643</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>4.845153664066601</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>45.99097492814197</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.02235727160173</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25865,7 +25865,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>191.2691783702304</v>
+        <v>83.0512337992609</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>835227.3564336493</v>
+        <v>897586.4039621297</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>897586.4039621297</v>
+        <v>897586.4039621298</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>897586.4039621296</v>
+        <v>897586.4039621298</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>902499.9148193025</v>
+        <v>902499.9148193024</v>
       </c>
     </row>
     <row r="16">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117838</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.150411784</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="E2" t="n">
-        <v>484893.3234797091</v>
+        <v>521741.8515647202</v>
       </c>
       <c r="F2" t="n">
-        <v>521741.8515647201</v>
+        <v>521741.85156472</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.8515647202</v>
+        <v>521741.85156472</v>
       </c>
       <c r="H2" t="n">
         <v>521741.85156472</v>
       </c>
       <c r="I2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="J2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="K2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.2897985041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
         <v>524645.2897985039</v>
@@ -26353,7 +26353,7 @@
         <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.244286178</v>
+        <v>302369.4048679834</v>
       </c>
       <c r="D3" t="n">
-        <v>12010.1062199942</v>
+        <v>85329.23106956888</v>
       </c>
       <c r="E3" t="n">
-        <v>431012.7433043229</v>
+        <v>589710.8045858943</v>
       </c>
       <c r="F3" t="n">
-        <v>143852.030004639</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744848</v>
+        <v>10818.91345744819</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854453</v>
+        <v>49064.94472854483</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487785</v>
+        <v>70301.9073952936</v>
       </c>
       <c r="L3" t="n">
-        <v>3011.079893818155</v>
+        <v>20609.76383352459</v>
       </c>
       <c r="M3" t="n">
-        <v>112568.2270402482</v>
+        <v>154015.6312544151</v>
       </c>
       <c r="N3" t="n">
-        <v>37822.10612282962</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.641531071072677e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,16 +26415,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.56483413</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>174202.9900888977</v>
+        <v>198159.2161991126</v>
       </c>
       <c r="D4" t="n">
-        <v>170887.6532318873</v>
+        <v>174202.9900888973</v>
       </c>
       <c r="E4" t="n">
-        <v>15350.11425425461</v>
+        <v>15430.10738565431</v>
       </c>
       <c r="F4" t="n">
         <v>15430.10738565431</v>
@@ -26436,22 +26436,22 @@
         <v>15430.10738565431</v>
       </c>
       <c r="I4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>15436.64000687966</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="L4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="M4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587224</v>
+        <v>78719.83982550878</v>
       </c>
       <c r="D5" t="n">
-        <v>86134.07768055705</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
-        <v>88006.19635166996</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-393202.1173548046</v>
+        <v>-393202.1173548047</v>
       </c>
       <c r="C6" t="n">
-        <v>-118235.165819164</v>
+        <v>-45571.31048082044</v>
       </c>
       <c r="D6" t="n">
-        <v>264645.3132793455</v>
+        <v>188945.8473974461</v>
       </c>
       <c r="E6" t="n">
-        <v>-49475.73043053836</v>
+        <v>-183587.0939162324</v>
       </c>
       <c r="F6" t="n">
-        <v>262317.5856605884</v>
+        <v>406123.7106696617</v>
       </c>
       <c r="G6" t="n">
-        <v>406169.6156652274</v>
+        <v>406123.7106696616</v>
       </c>
       <c r="H6" t="n">
-        <v>406169.6156652274</v>
+        <v>406123.7106696615</v>
       </c>
       <c r="I6" t="n">
-        <v>397267.2065102688</v>
+        <v>397232.4685848331</v>
       </c>
       <c r="J6" t="n">
-        <v>359021.1752391726</v>
+        <v>358986.4373137365</v>
       </c>
       <c r="K6" t="n">
-        <v>316826.1631028394</v>
+        <v>337749.4746469877</v>
       </c>
       <c r="L6" t="n">
-        <v>405075.040073899</v>
+        <v>387441.618208757</v>
       </c>
       <c r="M6" t="n">
-        <v>295517.8929274688</v>
+        <v>254035.7507878663</v>
       </c>
       <c r="N6" t="n">
-        <v>370264.0138448875</v>
+        <v>408051.3820422813</v>
       </c>
       <c r="O6" t="n">
-        <v>408086.1199677169</v>
+        <v>408051.3820422813</v>
       </c>
       <c r="P6" t="n">
-        <v>408086.1199677172</v>
+        <v>408051.3820422814</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>783.611462153316</v>
       </c>
       <c r="D3" t="n">
-        <v>863.4191373688036</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
-        <v>1232.028328053767</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261633</v>
+        <v>460.6827294501069</v>
       </c>
       <c r="D4" t="n">
-        <v>554.0121790446897</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
-        <v>1005.723335527925</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247799</v>
+        <v>235.1415212404111</v>
       </c>
       <c r="D3" t="n">
-        <v>9.708472831119479</v>
+        <v>70.09920238436916</v>
       </c>
       <c r="E3" t="n">
-        <v>368.6091906849631</v>
+        <v>504.3303841787007</v>
       </c>
       <c r="F3" t="n">
-        <v>126.0127206626191</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625287693</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,46 +27009,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598437</v>
+        <v>273.1571422837866</v>
       </c>
       <c r="D4" t="n">
-        <v>11.89722231852636</v>
+        <v>81.4322272760575</v>
       </c>
       <c r="E4" t="n">
-        <v>451.7111564832355</v>
+        <v>618.0303335998422</v>
       </c>
       <c r="F4" t="n">
-        <v>154.4219547980814</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364188</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663207</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598437</v>
+        <v>273.1571422837866</v>
       </c>
       <c r="L4" t="n">
-        <v>11.89722231852636</v>
+        <v>81.4322272760572</v>
       </c>
       <c r="M4" t="n">
-        <v>451.7111564832355</v>
+        <v>618.0303335998422</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980812</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598437</v>
+        <v>273.1571422837866</v>
       </c>
       <c r="L4" t="n">
-        <v>11.89722231852636</v>
+        <v>81.4322272760575</v>
       </c>
       <c r="M4" t="n">
-        <v>451.7111564832355</v>
+        <v>618.0303335998422</v>
       </c>
       <c r="N4" t="n">
-        <v>154.4219547980814</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>225.5722460637378</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>144.8750096658899</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>116.5771678922794</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038153</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121494</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,31 +27455,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.0852635485985</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>20.28069792079009</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.8840106256816</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
@@ -27546,22 +27546,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>93.20510176849645</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>4.854053373820193</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>117.2719944630387</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>102.0691337575811</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>307.2128488020882</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>89.02792617476483</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>17.70198601719446</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>137.234959259336</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.3058629286494</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0936371612143</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>1.983905508208665</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>135.6580132634846</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>95.95702499440588</v>
       </c>
       <c r="I6" t="n">
-        <v>36.29946757904885</v>
+        <v>41.49077643487234</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>41.03041096167767</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>140.3756754225238</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.3709651691716</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8304936665192</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>11.02579373047377</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>131.6161765669352</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>166.5779095086741</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>149.6636969338995</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>112.9556107173703</v>
       </c>
       <c r="J7" t="n">
-        <v>18.15430933923925</v>
+        <v>27.09138305962009</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>33.17967084429513</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>113.7566324950334</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>199.3906443820885</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>221.9079273428379</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2419528192299</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>170.1990149873396</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.6305787518268</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9239345398469</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>207.9014082622944</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679703711953</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>61.43876505983189</v>
       </c>
     </row>
     <row r="9">
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.32416786924142</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>108.4242715972871</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.58049105334803</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.37232180742821</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1871329268861</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,19 +28020,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>77.48115973206328</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3841574853627</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6276797401107</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>16.91655863091768</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.12871188675649</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2856691898563</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>196.882590064251</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2930157469153</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2341028839628</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>170.129649264826</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29208,7 +29208,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-4.336205468765305e-12</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29691,7 +29691,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-7.198262086896292e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29964,7 +29964,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>2.387423592153937e-12</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.770518235993296e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30444,7 +30444,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>3.150196832777147</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>32.26195331367897</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>121.4479633956411</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>267.3690184359197</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>400.7168503673764</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>497.1246866884801</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>553.1469996133807</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>562.0974963645087</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>530.772726608581</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>453.0022422993951</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>340.1858182255634</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>197.8835517969377</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>71.78511032690932</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>13.78998663548197</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2520157466221717</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.685503899726001</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>16.27841924209059</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>58.03160356512765</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>159.2431557192885</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>272.1719170009305</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>365.9687305084897</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>427.0682468735571</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>438.3714725870706</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>401.024254598405</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>321.857319238029</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>215.1530942878312</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>104.6490930022863</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>31.30749568131407</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>6.793763525649973</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.110888414455658</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.413069849784668</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>12.56347557354006</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>42.49486420988803</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>99.90403837977603</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>164.1730243658914</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>210.0849483943497</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>221.5051219985184</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>216.2382252856848</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>199.7310002222912</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>170.9043752866838</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>118.3253307851507</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>63.53675888213606</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>24.62595365488371</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>6.03766208544358</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.07707653726098199</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471031708015288</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.54770347971158</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8169499232595</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>294.5994774281629</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>441.5282496284501</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>547.754836262623</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>609.4827964000399</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>619.3448652404384</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>584.8297936938613</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>499.1386984022338</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.8323753589362</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0371955286155</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>79.09613504639846</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19444130183693</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.277682536641223</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857165691698936</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.93631075930288</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.94188894665197</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>175.4614305477491</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>299.8915318915778</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>403.2411735419116</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>470.5634298659979</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>483.017843649365</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>441.8669617438254</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>354.637192478896</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.0655714526572</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3071821565357</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.49603817695171</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.485681011716323</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1221819534012459</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.556985329681449</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84301502207689</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.82279518714759</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>110.0788628084784</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>180.8933864848083</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>231.4812552873674</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>244.0645276336111</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>238.2612186775259</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>220.0727991444289</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3102984189272</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.3762897426894</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>70.00772218731314</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>27.13400797272124</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.65257368136619</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08492647252807912</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.952877700718656</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>50.72365875248495</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
-        <v>190.9458175569562</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>420.3693037513705</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>630.0246168227912</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>781.60124775616</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>869.6819865663153</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>883.7543503334823</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>834.5041726969612</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>712.2300044604692</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>534.8550718034821</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>311.1212038677686</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
-        <v>112.8637006051265</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>21.68122213489593</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3962302160574924</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.650023196191121</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>25.59364507900372</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>91.23983372851009</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>427.9206316410899</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>575.3920979273748</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>671.4554387893028</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>319.3165025577131</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>630.5079312446479</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P12" t="n">
-        <v>506.0382013849519</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>338.2731364120456</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>49.22301857837451</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>10.68145314605105</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1743436313283633</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.22169042763794</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>19.75284762027188</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>66.8122903147846</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
-        <v>157.0735132340023</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>258.1200333201169</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>330.3047750326443</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>348.2600731250999</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>339.9792269857224</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>314.02584335377</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
-        <v>268.7033586299558</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>186.0362775361188</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>99.89528050088407</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>38.71800499801753</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
-        <v>9.49267728172574</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1211831142347969</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,16 +32072,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>139.4267020936821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
         <v>740.1323715504302</v>
@@ -32090,16 +32090,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32309,10 +32309,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
         <v>471.6886536848224</v>
@@ -32327,7 +32327,7 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>571.4938338238237</v>
+        <v>421.3049304638554</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377427</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122284</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>210.475889570406</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874066</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830432</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364266</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293311</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>974.145364522961</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086955</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687526</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148608</v>
       </c>
       <c r="R20" t="n">
         <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854258</v>
       </c>
       <c r="T20" t="n">
         <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901941</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,40 +32540,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540906</v>
       </c>
       <c r="H21" t="n">
         <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735819</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848226</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745726</v>
       </c>
       <c r="M21" t="n">
-        <v>197.8673674492839</v>
+        <v>740.1323715504303</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>759.721473092764</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169075</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.25758340862161</v>
@@ -32582,7 +32582,7 @@
         <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013755</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,34 +32622,34 @@
         <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548568</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284928</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900887</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>364.088578864062</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265023</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416876</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465964</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282425</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561743</v>
       </c>
       <c r="R22" t="n">
         <v>110.1126397860859</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,7 +33029,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>295.9743940159484</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>531.2627466777524</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,10 +33731,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>342.490526454265</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>198.5607970756955</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,31 +34205,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>545.9074025036812</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34387,7 +34387,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>86.32311390923337</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>180.6269993223958</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>261.3582717184929</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>322.800766386108</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>332.6844327679178</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>300.6745151868943</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>221.7692465441256</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>117.8801283511139</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6508773409395</v>
+        <v>32.40552905262183</v>
       </c>
       <c r="K6" t="n">
-        <v>158.6780472169987</v>
+        <v>134.3304780265715</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>227.4143507286155</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>284.9342129515388</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>307.0297605037373</v>
       </c>
       <c r="O6" t="n">
-        <v>294.302268944006</v>
+        <v>258.4280101539606</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>187.8829118236987</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892906</v>
+        <v>75.17132020180972</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>49.84612367850724</v>
+        <v>35.15976619535601</v>
       </c>
       <c r="L7" t="n">
-        <v>93.99375335563528</v>
+        <v>75.2002721131114</v>
       </c>
       <c r="M7" t="n">
-        <v>102.3944289806455</v>
+        <v>82.57933805091338</v>
       </c>
       <c r="N7" t="n">
-        <v>107.8966131767807</v>
+        <v>88.55268082045166</v>
       </c>
       <c r="O7" t="n">
-        <v>79.14171420769682</v>
+        <v>61.27446177044837</v>
       </c>
       <c r="P7" t="n">
-        <v>48.46489236084162</v>
+        <v>33.17637123753616</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.5535729014766</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>221.4383985834695</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>311.9884212926358</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>379.1365631727672</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>389.9318016438475</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>354.7315822721746</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>267.9057026469643</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.5266854844867</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
-        <v>2.451657714483417</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.62380388108238</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>162.0500929172188</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>264.6867937620374</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>328.4293959439796</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>351.6761315660317</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>299.2707172993809</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>220.6627850645658</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.08379736663568</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.88012831427292</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>96.59657900612916</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1387436860061</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>110.5756742122927</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>81.61626069258611</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>50.58229436977956</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>239.3233992246842</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>409.9347657778107</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>545.8348327861727</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>639.3357533390426</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
-        <v>654.3412867368913</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>604.4059612752744</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>480.9970087051997</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>312.5493819290326</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>95.53566605363648</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>290.0791926667309</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>436.8377181475007</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>529.3214048672844</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>187.9747904743798</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>487.9116868002035</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P12" t="n">
-        <v>372.0637939706216</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.2913623260241</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.71433311732955</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
-        <v>235.8505414942341</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
-        <v>357.8948002929604</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>387.8439500869405</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
-        <v>384.111399364951</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>338.6109712678096</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>265.9819178948493</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>99.87423428442439</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>12.5890754270154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
         <v>597.9983376284119</v>
@@ -35738,16 +35738,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
         <v>333.8472147104634</v>
@@ -35975,7 +35975,7 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>428.8975893793793</v>
+        <v>278.7086860194109</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607203</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380627</v>
       </c>
       <c r="L20" t="n">
         <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020584</v>
       </c>
       <c r="N20" t="n">
         <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870087</v>
       </c>
       <c r="P20" t="n">
         <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404113</v>
       </c>
       <c r="R20" t="n">
         <v>127.3573607845842</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069152</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104636</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946984</v>
       </c>
       <c r="M21" t="n">
-        <v>55.73333352726556</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094307</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872463</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066055</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642058</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243781</v>
       </c>
       <c r="M22" t="n">
         <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209162</v>
       </c>
       <c r="O22" t="n">
         <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.465085693136</v>
       </c>
       <c r="Q22" t="n">
         <v>118.9021551044799</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,7 +36677,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>397.2883392634221</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295167</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>211.1488143709317</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>55.96455263125101</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,31 +37853,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>403.7733685816629</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
